--- a/data_table/BattleProcessWaveNode.xlsx
+++ b/data_table/BattleProcessWaveNode.xlsx
@@ -1138,7 +1138,7 @@
   <dimension ref="A1:J26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1270,7 +1270,7 @@
         <v>2000</v>
       </c>
       <c r="G4" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H4">
         <v>1000201</v>

--- a/data_table/BattleProcessWaveNode.xlsx
+++ b/data_table/BattleProcessWaveNode.xlsx
@@ -1138,7 +1138,7 @@
   <dimension ref="A1:J26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1273,7 +1273,7 @@
         <v>2</v>
       </c>
       <c r="H4">
-        <v>1000201</v>
+        <v>1000210</v>
       </c>
       <c r="I4">
         <v>2</v>

--- a/data_table/BattleProcessWaveNode.xlsx
+++ b/data_table/BattleProcessWaveNode.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255"/>
+    <workbookView windowWidth="16650" windowHeight="11655"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1137,8 +1137,8 @@
   <sheetPr/>
   <dimension ref="A1:J26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1267,16 +1267,16 @@
         <v>1000</v>
       </c>
       <c r="F4" s="1">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="G4" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H4">
         <v>1000210</v>
       </c>
       <c r="I4">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -1293,7 +1293,7 @@
         <v>1</v>
       </c>
       <c r="E5">
-        <v>4000</v>
+        <v>40000000</v>
       </c>
       <c r="F5" s="1">
         <v>3000</v>
@@ -1322,7 +1322,7 @@
         <v>2</v>
       </c>
       <c r="E6">
-        <v>2000</v>
+        <v>40000000</v>
       </c>
       <c r="F6" s="1">
         <v>2000</v>
@@ -1351,7 +1351,7 @@
         <v>2</v>
       </c>
       <c r="E7">
-        <v>4000</v>
+        <v>40000000</v>
       </c>
       <c r="F7" s="1">
         <v>3000</v>
@@ -1380,7 +1380,7 @@
         <v>3</v>
       </c>
       <c r="E8">
-        <v>1000</v>
+        <v>40000000</v>
       </c>
       <c r="F8" s="1">
         <v>0</v>
